--- a/サンプルアプリケーション/設計書/Nablarchを使用した開発の流れ.xlsx
+++ b/サンプルアプリケーション/設計書/Nablarchを使用した開発の流れ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="285" windowWidth="23565" windowHeight="8190" tabRatio="822"/>
+    <workbookView xWindow="360" yWindow="285" windowWidth="23565" windowHeight="8190" tabRatio="822" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -816,87 +816,6 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1014,6 +933,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6"/>
@@ -1358,6 +1358,311 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>136929</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>86321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="296" name="カギ線コネクタ 295"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="358" idx="3"/>
+          <a:endCxn id="690" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9108288" y="7002386"/>
+          <a:ext cx="1482321" cy="1477841"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9805</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>136929</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="358" name="メモ 357"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8373946" y="6849116"/>
+          <a:ext cx="734342" cy="306539"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" tIns="108000" bIns="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="80000"/>
+            </a:lnSpc>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Dummy</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -4104,14 +4409,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200023</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4120,7 +4425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2466973" y="5095875"/>
+          <a:off x="2466973" y="4781550"/>
           <a:ext cx="1200151" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
@@ -5891,14 +6196,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>117458</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>80824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>117458</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5907,7 +6212,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4410808" y="7993900"/>
+          <a:off x="4410808" y="8125786"/>
           <a:ext cx="1384788" cy="505558"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -15518,14 +15823,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15534,7 +15839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2457450" y="6610350"/>
+          <a:off x="2457450" y="6057900"/>
           <a:ext cx="1200150" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15639,14 +15944,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>49092</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>20517</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15657,8 +15962,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2036885" y="7418510"/>
-          <a:ext cx="2373923" cy="1467"/>
+          <a:off x="2057400" y="6810375"/>
+          <a:ext cx="2400300" cy="1467"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18097,14 +18402,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18113,7 +18418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2266950" y="5162549"/>
+          <a:off x="2266950" y="4610099"/>
           <a:ext cx="1600200" cy="2028825"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -18151,73 +18456,6 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>167367</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="230" name="正方形/長方形 229"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4467225" y="6724650"/>
-          <a:ext cx="400051" cy="338817"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:noFill/>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -18598,13 +18836,13 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>92320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>92321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18613,7 +18851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4410808" y="8906608"/>
+          <a:off x="4410808" y="8979878"/>
           <a:ext cx="1384788" cy="505558"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -18906,13 +19144,13 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>92321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>17585</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>92321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18921,8 +19159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6438900" y="9039226"/>
-          <a:ext cx="1246310" cy="514350"/>
+          <a:off x="6370027" y="8979879"/>
+          <a:ext cx="1230923" cy="505557"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -19174,13 +19412,13 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>92321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>8058</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>50742</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>92321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19189,8 +19427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7839075" y="9039226"/>
-          <a:ext cx="1236783" cy="514350"/>
+          <a:off x="7754815" y="8979879"/>
+          <a:ext cx="1461908" cy="505557"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -19439,14 +19677,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>14968</xdr:rowOff>
+      <xdr:rowOff>161193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -19457,8 +19695,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="8863693"/>
-          <a:ext cx="3000375" cy="861332"/>
+          <a:off x="6172201" y="8880231"/>
+          <a:ext cx="3198933" cy="700454"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -20232,14 +20470,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>117459</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>80825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>117459</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20248,8 +20486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6438900" y="8108934"/>
-          <a:ext cx="1219200" cy="514350"/>
+          <a:off x="6370027" y="8125787"/>
+          <a:ext cx="1206011" cy="505558"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -20846,14 +21084,14 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20862,8 +21100,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7516467" y="6362287"/>
-          <a:ext cx="1192696" cy="521805"/>
+          <a:off x="7562850" y="5619751"/>
+          <a:ext cx="1200150" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -21084,14 +21322,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>21983</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>120361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>172185</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>44161</xdr:rowOff>
     </xdr:to>
@@ -21102,8 +21340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10858500" y="6476134"/>
-          <a:ext cx="1407102" cy="616527"/>
+          <a:off x="10572752" y="6311611"/>
+          <a:ext cx="1337164" cy="597877"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -21431,14 +21669,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>172185</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>82262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>104042</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>83894</xdr:rowOff>
     </xdr:to>
@@ -21452,8 +21690,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11682779" y="6610550"/>
-          <a:ext cx="583956" cy="1632"/>
+          <a:off x="11909916" y="6610550"/>
+          <a:ext cx="327511" cy="1632"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -21750,7 +21988,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>135030</xdr:colOff>
+      <xdr:colOff>105722</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>83894</xdr:rowOff>
     </xdr:from>
@@ -21770,8 +22008,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13455376" y="6612182"/>
-          <a:ext cx="289932" cy="367"/>
+          <a:off x="13426068" y="6612182"/>
+          <a:ext cx="319240" cy="367"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -21805,14 +22043,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>103310</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>8061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21823,7 +22061,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2044212" y="9159387"/>
+          <a:off x="2044212" y="9232657"/>
           <a:ext cx="2366596" cy="1465"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -22040,14 +22278,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>72535</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>72535</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -22058,8 +22296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10696575" y="4752975"/>
-          <a:ext cx="1400175" cy="514350"/>
+          <a:off x="10425477" y="4693627"/>
+          <a:ext cx="1384789" cy="505558"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -22349,13 +22587,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38832</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>100694</xdr:colOff>
+      <xdr:colOff>34751</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -22366,8 +22604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12372975" y="4752975"/>
-          <a:ext cx="1196069" cy="514350"/>
+          <a:off x="12172217" y="4693627"/>
+          <a:ext cx="1182880" cy="505558"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -22595,16 +22833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>72535</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>103310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38832</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>103310</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22616,8 +22854,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12096750" y="5010150"/>
-          <a:ext cx="276225" cy="0"/>
+          <a:off x="11810266" y="4946406"/>
+          <a:ext cx="361951" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -28465,8 +28703,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -28479,7 +28717,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3067050" y="3352800"/>
-          <a:ext cx="0" cy="1809749"/>
+          <a:ext cx="0" cy="1257299"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -28937,561 +29175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="540" name="メモ 539"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7839075" y="7229476"/>
-          <a:ext cx="1200150" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:extLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" tIns="108000" bIns="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="20000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:schemeClr val="folHlink"/>
-            </a:buClr>
-            <a:buSzPct val="70000"/>
-            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="20000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:schemeClr val="folHlink"/>
-            </a:buClr>
-            <a:buSzPct val="70000"/>
-            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="20000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:schemeClr val="folHlink"/>
-            </a:buClr>
-            <a:buSzPct val="70000"/>
-            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="20000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:schemeClr val="folHlink"/>
-            </a:buClr>
-            <a:buSzPct val="70000"/>
-            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="20000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:schemeClr val="folHlink"/>
-            </a:buClr>
-            <a:buSzPct val="70000"/>
-            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="80000"/>
-            </a:lnSpc>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システム機能</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="80000"/>
-            </a:lnSpc>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>設計書</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>バッチ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="541" name="メモ 540"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6438900" y="7229476"/>
-          <a:ext cx="1200150" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:extLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="20000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:schemeClr val="folHlink"/>
-            </a:buClr>
-            <a:buSzPct val="70000"/>
-            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="20000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:schemeClr val="folHlink"/>
-            </a:buClr>
-            <a:buSzPct val="70000"/>
-            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="20000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:schemeClr val="folHlink"/>
-            </a:buClr>
-            <a:buSzPct val="70000"/>
-            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="20000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:schemeClr val="folHlink"/>
-            </a:buClr>
-            <a:buSzPct val="70000"/>
-            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="20000"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:schemeClr val="folHlink"/>
-            </a:buClr>
-            <a:buSzPct val="70000"/>
-            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>リクエスト一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>188098</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -29500,8 +29193,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4410808" y="7167197"/>
-          <a:ext cx="1382386" cy="505559"/>
+          <a:off x="4457700" y="6553201"/>
+          <a:ext cx="1397773" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -29747,15 +29440,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>29538</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -29764,13 +29457,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6257925" y="7153275"/>
-          <a:ext cx="3000375" cy="714375"/>
+          <a:off x="6191249" y="6353175"/>
+          <a:ext cx="3202097" cy="699721"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="6BA42C"/>
@@ -29817,14 +29512,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>6692</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>27718</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>170593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>29309</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>29311</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>736</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -29833,8 +29528,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5809615" y="7398603"/>
-          <a:ext cx="418271" cy="1593"/>
+          <a:off x="5874092" y="6790468"/>
+          <a:ext cx="422667" cy="1593"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -29870,8 +29565,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -29889,8 +29584,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1666876" y="7124700"/>
-          <a:ext cx="1390649" cy="1466850"/>
+          <a:off x="1666876" y="6572250"/>
+          <a:ext cx="1390649" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -29929,8 +29624,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -29948,12 +29643,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1666876" y="5353050"/>
-          <a:ext cx="800097" cy="2314575"/>
+          <a:off x="1666876" y="5038725"/>
+          <a:ext cx="800097" cy="2867025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 33333"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -29990,25 +29685,23 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="602" name="直線矢印コネクタ 601"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="284" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066925" y="4495800"/>
+          <a:off x="2066925" y="4676775"/>
           <a:ext cx="2400301" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -31544,61 +31237,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="872" name="直線矢印コネクタ 871"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9896475" y="4953001"/>
-          <a:ext cx="352425" cy="9524"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>63</xdr:row>
@@ -32911,64 +32549,6 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>82262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1073" name="直線矢印コネクタ 1072"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="552" idx="3"/>
-          <a:endCxn id="283" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9611591" y="6784398"/>
-          <a:ext cx="1246909" cy="816985"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -33738,7 +33318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4467226" y="6896100"/>
+          <a:off x="4467226" y="7134225"/>
           <a:ext cx="1400175" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -33848,8 +33428,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -33862,7 +33442,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="3867150" y="4905375"/>
-          <a:ext cx="600075" cy="1271587"/>
+          <a:ext cx="600075" cy="719137"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -33894,15 +33474,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:colOff>100015</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>100016</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -33912,69 +33492,12 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4645821" y="5593555"/>
-          <a:ext cx="1038225" cy="4765"/>
+        <a:xfrm>
+          <a:off x="5167315" y="5076825"/>
+          <a:ext cx="4761" cy="409574"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="296" name="カギ線コネクタ 295"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="552" idx="3"/>
-          <a:endCxn id="690" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9258300" y="7510463"/>
-          <a:ext cx="1209675" cy="909637"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
           <a:solidFill>
@@ -34003,7 +33526,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
+      <xdr:colOff>61913</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -34023,8 +33546,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9486080" y="2242315"/>
-          <a:ext cx="1072382" cy="3629683"/>
+          <a:off x="9531052" y="2202649"/>
+          <a:ext cx="1058740" cy="3643325"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -35855,14 +35378,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -35871,7 +35394,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524376" y="6134101"/>
+          <a:off x="4524376" y="5467351"/>
           <a:ext cx="4743450" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -35924,14 +35447,14 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -35940,8 +35463,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6210714" y="6362287"/>
-          <a:ext cx="1192696" cy="521805"/>
+          <a:off x="6248400" y="5619751"/>
+          <a:ext cx="1200150" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -36186,14 +35709,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -36202,8 +35725,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4903718" y="6362287"/>
-          <a:ext cx="1192696" cy="521805"/>
+          <a:off x="4933950" y="5619751"/>
+          <a:ext cx="1200150" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -36448,14 +35971,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200023</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -36464,7 +35987,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2466973" y="5991225"/>
+          <a:off x="2466973" y="5438775"/>
           <a:ext cx="1200151" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
@@ -36688,8 +36211,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -36707,12 +36230,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1666876" y="6248400"/>
-          <a:ext cx="800097" cy="1657350"/>
+          <a:off x="1666876" y="5695950"/>
+          <a:ext cx="800097" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 34524"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -37062,15 +36585,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>117459</xdr:rowOff>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>80825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>117458</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>52497</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -37079,8 +36602,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7839075" y="8108934"/>
-          <a:ext cx="1238250" cy="514349"/>
+          <a:off x="7754814" y="8125787"/>
+          <a:ext cx="1463664" cy="505557"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -37302,15 +36825,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>10488</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>21982</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -37319,8 +36842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6238875" y="7981951"/>
-          <a:ext cx="3000375" cy="790574"/>
+          <a:off x="6172199" y="8022981"/>
+          <a:ext cx="3202097" cy="718039"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -37559,13 +37082,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>104042</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>24912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>135030</xdr:colOff>
+      <xdr:colOff>105722</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -37576,7 +37099,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12266735" y="6384681"/>
+          <a:off x="12237427" y="6384681"/>
           <a:ext cx="1188641" cy="455002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -37645,13 +37168,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>160461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>33198</xdr:rowOff>
+      <xdr:rowOff>165084</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -37662,7 +37185,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2053737" y="8242056"/>
+          <a:off x="2053737" y="8373942"/>
           <a:ext cx="2357071" cy="4623"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -38464,8 +37987,8 @@
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>183932</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -38474,8 +37997,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10220984" y="4593348"/>
-          <a:ext cx="3232258" cy="1394920"/>
+          <a:off x="10259892" y="4553682"/>
+          <a:ext cx="3244386" cy="2531453"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -38915,13 +38438,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>49090</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>49090</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>7242</xdr:rowOff>
     </xdr:to>
@@ -38932,8 +38455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12353925" y="5419725"/>
-          <a:ext cx="1200150" cy="521592"/>
+          <a:off x="12182475" y="5348654"/>
+          <a:ext cx="1186961" cy="512800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -39410,14 +38933,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>124559</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95984</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -39426,8 +38949,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5106864" y="6909289"/>
-          <a:ext cx="1" cy="249116"/>
+          <a:off x="5162549" y="6292362"/>
+          <a:ext cx="1" cy="252047"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -39461,13 +38984,13 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>189866</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>27723</xdr:rowOff>
+      <xdr:rowOff>159609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>14656</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>29316</xdr:rowOff>
+      <xdr:rowOff>161202</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -39476,7 +38999,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5794962" y="8241204"/>
+          <a:off x="5794962" y="8373090"/>
           <a:ext cx="418271" cy="1593"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -39557,6 +39080,1648 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>3666</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="295" name="直線矢印コネクタ 294"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="353" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2027360" y="7541603"/>
+          <a:ext cx="2373923" cy="1467"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>49825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>49825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="メモ 337"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7745289" y="7252190"/>
+          <a:ext cx="1420692" cy="505558"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" tIns="108000" bIns="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="80000"/>
+            </a:lnSpc>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム機能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="80000"/>
+            </a:lnSpc>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>設計書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サービス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>84994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>178573</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>84995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="353" name="フローチャート : 代替処理 352"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4401283" y="7287359"/>
+          <a:ext cx="1382386" cy="505559"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="128016" tIns="64008" rIns="128016" bIns="64008" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" charset="0"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>サービス設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>20013</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="354" name="フローチャート: 処理 353"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181724" y="7175989"/>
+          <a:ext cx="3202097" cy="702652"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="6BA42C"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>197192</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>150811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19784</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152404</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="355" name="直線矢印コネクタ 354"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5802288" y="7521696"/>
+          <a:ext cx="416073" cy="1593"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="540" name="メモ 539"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7754814" y="6426445"/>
+          <a:ext cx="1420692" cy="505558"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" tIns="108000" bIns="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="80000"/>
+            </a:lnSpc>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム機能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="80000"/>
+            </a:lnSpc>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>設計書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>バッチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="541" name="メモ 540"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="6515101"/>
+          <a:ext cx="1200150" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リクエスト一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190683</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="359" name="メモ 358"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6530761" y="7405459"/>
+          <a:ext cx="1233488" cy="517923"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" tIns="108000" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サービス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>135182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="360" name="直線矢印コネクタ 359"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="328" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="5895975"/>
+          <a:ext cx="390527" cy="1832"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -39857,7 +41022,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -40515,55 +41680,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="90" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="99" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="80" t="s">
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="81" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="73">
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="46">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="75"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -40571,51 +41736,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="80" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="86" t="str">
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="59" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="73" t="str">
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="46" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="75"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -40623,43 +41788,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="48"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -40696,1034 +41861,1190 @@
       <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="76" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="79" t="s">
+      <c r="H7" s="51"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="76" t="s">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="76" t="s">
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="77"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="50"/>
     </row>
     <row r="8" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61">
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
         <v>43677</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="67" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="69"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
     </row>
     <row r="9" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
     <row r="10" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="54"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="93"/>
     </row>
     <row r="12" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="93"/>
     </row>
     <row r="13" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="93"/>
     </row>
     <row r="14" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="54"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="93"/>
     </row>
     <row r="15" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="54"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="93"/>
     </row>
     <row r="17" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="93"/>
     </row>
     <row r="18" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="54"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="93"/>
     </row>
     <row r="19" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="93"/>
     </row>
     <row r="20" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="54"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="93"/>
     </row>
     <row r="21" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="54"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="93"/>
     </row>
     <row r="22" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="54"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="93"/>
     </row>
     <row r="23" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="93"/>
     </row>
     <row r="24" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="54"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
     </row>
     <row r="25" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="93"/>
     </row>
     <row r="26" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="54"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
     </row>
     <row r="28" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="54"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="93"/>
     </row>
     <row r="29" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="93"/>
     </row>
     <row r="30" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="54"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="93"/>
     </row>
     <row r="31" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="54"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="93"/>
     </row>
     <row r="32" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="54"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="93"/>
     </row>
     <row r="33" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="93"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -41747,162 +43068,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -41916,8 +43081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="CN10" sqref="CN10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BG55" sqref="BG55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/サンプルアプリケーション/設計書/Nablarchを使用した開発の流れ.xlsx
+++ b/サンプルアプリケーション/設計書/Nablarchを使用した開発の流れ.xlsx
@@ -816,6 +816,87 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -931,87 +1012,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -15829,8 +15829,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15840,7 +15840,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2457450" y="6057900"/>
-          <a:ext cx="1200150" cy="514350"/>
+          <a:ext cx="1200150" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15879,6 +15879,33 @@
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>デザイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>HTML)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18409,7 +18436,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18419,7 +18446,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2266950" y="4610099"/>
-          <a:ext cx="1600200" cy="2028825"/>
+          <a:ext cx="1600200" cy="2105026"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -29565,8 +29592,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -29584,8 +29611,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1666876" y="6572250"/>
-          <a:ext cx="1390649" cy="2019300"/>
+          <a:off x="1666876" y="6629400"/>
+          <a:ext cx="1390649" cy="1962150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -33429,7 +33456,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -33442,7 +33469,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="3867150" y="4905375"/>
-          <a:ext cx="600075" cy="719137"/>
+          <a:ext cx="600075" cy="757237"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -41680,55 +41707,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="63" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="72" t="s">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="53" t="s">
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="81" t="str">
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="108" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="46">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="73">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="75"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -41736,51 +41763,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="53" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="59" t="str">
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="86" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="46" t="str">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="73" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="75"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -41788,43 +41815,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -41861,1190 +41888,1034 @@
       <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="49" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="52" t="s">
+      <c r="H7" s="78"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="49" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="49" t="s">
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="50"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="77"/>
     </row>
     <row r="8" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61">
         <v>43677</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105" t="s">
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="105" t="s">
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="107"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="69"/>
     </row>
     <row r="9" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54"/>
     </row>
     <row r="10" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="93"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="54"/>
     </row>
     <row r="11" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="93"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54"/>
     </row>
     <row r="12" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="93"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54"/>
     </row>
     <row r="13" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="93"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54"/>
     </row>
     <row r="14" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="93"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="54"/>
     </row>
     <row r="15" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="93"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
     </row>
     <row r="16" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="93"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="54"/>
     </row>
     <row r="17" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="93"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
     </row>
     <row r="18" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="93"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="54"/>
     </row>
     <row r="19" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="93"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="54"/>
     </row>
     <row r="20" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="93"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="54"/>
     </row>
     <row r="21" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="93"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="54"/>
     </row>
     <row r="22" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="93"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="54"/>
     </row>
     <row r="23" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="93"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
     </row>
     <row r="24" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="93"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="54"/>
     </row>
     <row r="25" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="93"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
     </row>
     <row r="26" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="93"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="54"/>
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="93"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
     </row>
     <row r="28" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="93"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="54"/>
     </row>
     <row r="29" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="93"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="54"/>
     </row>
     <row r="30" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="93"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="54"/>
     </row>
     <row r="31" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="93"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="54"/>
     </row>
     <row r="32" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="93"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="54"/>
     </row>
     <row r="33" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="93"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="54"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -43068,6 +42939,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -43081,8 +43108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BG55" sqref="BG55"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
